--- a/Участок ремонта форм/Формокомплекты/Спецификация для заказа/XIII-В-28-2-200-3 (Фляга 0.2 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Спецификация для заказа/XIII-В-28-2-200-3 (Фляга 0.2 л.).xlsx
@@ -1,28 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Спецификация для заказа\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Александр Гавриленко\Работа\vedatranzit\Участок ремонта форм\Формокомплекты\Спецификация для заказа\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A6F714-7A5A-48A1-A177-60A8F61A1ACD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="72" windowWidth="17052" windowHeight="11928"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$F$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$F$34</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
   <si>
     <t>Чистовая форма</t>
   </si>
@@ -141,13 +149,16 @@
     <t>тип ХIII-В-28-2-200-3 (Фляга 0.2 л.)</t>
   </si>
   <si>
-    <t>Комплектация на бутылку   от 12.12.2019 г.</t>
+    <t>Комплектация на бутылку   от 06.05.2020 г.</t>
+  </si>
+  <si>
+    <t>Держатель графитовых вставок</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,6 +501,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -525,6 +553,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -700,25 +745,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>39</v>
       </c>
@@ -729,7 +774,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -738,7 +783,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>37</v>
       </c>
@@ -749,7 +794,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>38</v>
       </c>
@@ -760,7 +805,7 @@
       <c r="F5" s="20"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -769,7 +814,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>7</v>
       </c>
@@ -788,7 +833,7 @@
       <c r="F7" s="23"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="27"/>
@@ -800,7 +845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -808,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>22</v>
@@ -817,43 +862,43 @@
         <v>36</v>
       </c>
       <c r="F9" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <f t="shared" ref="A11:A13" si="0">A10+1</f>
+        <v>3</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <f t="shared" ref="A11:A18" si="0">A10+1</f>
-        <v>3</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>36</v>
@@ -862,255 +907,349 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F13" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A14:A21" si="1">A13+1</f>
         <v>6</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="E16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
       <c r="B17" s="12" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="F17" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="E18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="F18" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <f>A18+1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="6">
         <v>20</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <f t="shared" ref="A20:A21" si="1">A19+1</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="E20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="F20" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <f>A21+1</f>
+        <v>14</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <f t="shared" ref="A23:A25" si="2">A22+1</f>
+        <v>15</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="1:6" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="D25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>29</v>
       </c>
     </row>
